--- a/united_kingdom_emis.xlsx
+++ b/united_kingdom_emis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{CE1F1532-B8C2-42A4-8164-6A54270B0CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC5DEB58-BD1A-4257-82A2-556FA0B41BDC}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{CE1F1532-B8C2-42A4-8164-6A54270B0CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDEA485F-9587-4D8B-9BB8-4F4028B95365}"/>
   <bookViews>
     <workbookView xWindow="-20892" yWindow="1128" windowWidth="21600" windowHeight="11832" xr2:uid="{59B98C91-C7A5-453D-9C0B-275855501387}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="443">
   <si>
     <t>Transferwise Ltd</t>
   </si>
@@ -1351,6 +1351,26 @@
   </si>
   <si>
     <t>providing crypro exchange platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    Active
+                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    Liquidation
+                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    In Administration
+                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    Converted / Closed
+                </t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1406,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,15 +1725,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C898DA-5C90-4444-9CDC-60E06881943E}">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1723,8 +1751,11 @@
       <c r="D1">
         <v>7209813</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +1768,11 @@
       <c r="D2">
         <v>9708629</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1751,8 +1785,11 @@
       <c r="D3">
         <v>9523903</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1765,8 +1802,11 @@
       <c r="D4">
         <v>10841289</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1779,8 +1819,11 @@
       <c r="D5">
         <v>8720992</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1793,8 +1836,11 @@
       <c r="D6">
         <v>10630670</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1807,8 +1853,11 @@
       <c r="D7">
         <v>9495650</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1821,8 +1870,11 @@
       <c r="D8">
         <v>5193147</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1835,8 +1887,11 @@
       <c r="D9">
         <v>4631395</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1849,8 +1904,11 @@
       <c r="D10">
         <v>7110878</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1921,11 @@
       <c r="D11">
         <v>8574246</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1877,8 +1938,11 @@
       <c r="D12">
         <v>5832811</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1891,8 +1955,11 @@
       <c r="D13">
         <v>6029941</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1905,8 +1972,11 @@
       <c r="D14">
         <v>9908958</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1919,8 +1989,11 @@
       <c r="D15">
         <v>10207686</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1933,8 +2006,11 @@
       <c r="D16">
         <v>5428358</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1947,8 +2023,11 @@
       <c r="D17">
         <v>8542957</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1961,8 +2040,11 @@
       <c r="D18">
         <v>3041197</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1975,8 +2057,11 @@
       <c r="D19">
         <v>9926210</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1989,8 +2074,11 @@
       <c r="D20">
         <v>5153270</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -2003,8 +2091,11 @@
       <c r="D21">
         <v>10063984</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -2017,8 +2108,11 @@
       <c r="D22">
         <v>5082565</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2031,8 +2125,11 @@
       <c r="D23">
         <v>5452483</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2045,8 +2142,11 @@
       <c r="D24">
         <v>6445887</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2059,8 +2159,11 @@
       <c r="D25">
         <v>4478861</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2073,8 +2176,11 @@
       <c r="D26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2087,8 +2193,11 @@
       <c r="D27">
         <v>7157877</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2101,8 +2210,11 @@
       <c r="D28">
         <v>5761861</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2115,8 +2227,11 @@
       <c r="D29">
         <v>4260907</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -2129,8 +2244,11 @@
       <c r="D30">
         <v>8480771</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2143,8 +2261,11 @@
       <c r="D31">
         <v>7836562</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2157,8 +2278,11 @@
       <c r="D32">
         <v>3504225</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2171,8 +2295,11 @@
       <c r="D33">
         <v>7875693</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -2185,8 +2312,11 @@
       <c r="D34">
         <v>5022388</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2199,8 +2329,11 @@
       <c r="D35">
         <v>11815332</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -2213,8 +2346,11 @@
       <c r="D36">
         <v>9530233</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2227,8 +2363,11 @@
       <c r="D37">
         <v>9356276</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2241,8 +2380,11 @@
       <c r="D38">
         <v>9392688</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -2255,8 +2397,11 @@
       <c r="D39">
         <v>10103420</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -2269,8 +2414,11 @@
       <c r="D40">
         <v>8098385</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -2283,8 +2431,11 @@
       <c r="D41">
         <v>2933191</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -2297,8 +2448,11 @@
       <c r="D42">
         <v>2631112</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -2311,8 +2465,11 @@
       <c r="D43">
         <v>5108142</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2325,8 +2482,11 @@
       <c r="D44">
         <v>10408510</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -2339,8 +2499,11 @@
       <c r="D45">
         <v>11347482</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -2353,8 +2516,11 @@
       <c r="D46">
         <v>10977384</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -2368,7 +2534,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -2381,8 +2547,11 @@
       <c r="D48">
         <v>10583935</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -2395,8 +2564,11 @@
       <c r="D49" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -2409,8 +2581,11 @@
       <c r="D50">
         <v>9609407</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -2423,8 +2598,11 @@
       <c r="D51">
         <v>12108869</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -2437,8 +2615,11 @@
       <c r="D52">
         <v>12533411</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -2451,8 +2632,11 @@
       <c r="D53">
         <v>10452111</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -2465,8 +2649,11 @@
       <c r="D54">
         <v>7930355</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -2479,8 +2666,11 @@
       <c r="D55">
         <v>11611661</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -2493,8 +2683,11 @@
       <c r="D56">
         <v>11082273</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -2507,8 +2700,11 @@
       <c r="D57">
         <v>11366159</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -2521,8 +2717,11 @@
       <c r="D58">
         <v>10169337</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -2535,8 +2734,11 @@
       <c r="D59">
         <v>8246355</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>138</v>
       </c>
@@ -2549,8 +2751,11 @@
       <c r="D60">
         <v>5802971</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -2563,8 +2768,11 @@
       <c r="D61">
         <v>6169107</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>143</v>
       </c>
@@ -2577,8 +2785,11 @@
       <c r="D62">
         <v>12136387</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -2591,8 +2802,11 @@
       <c r="D63">
         <v>5271222</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -2605,8 +2819,11 @@
       <c r="D64">
         <v>4610337</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -2619,8 +2836,11 @@
       <c r="D65">
         <v>8651138</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>151</v>
       </c>
@@ -2633,8 +2853,11 @@
       <c r="D66">
         <v>3925386</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -2647,8 +2870,11 @@
       <c r="D67">
         <v>8037323</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -2661,8 +2887,11 @@
       <c r="D68">
         <v>9543077</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -2675,8 +2904,11 @@
       <c r="D69">
         <v>10266827</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>159</v>
       </c>
@@ -2689,8 +2921,11 @@
       <c r="D70">
         <v>7805564</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -2703,8 +2938,11 @@
       <c r="D71">
         <v>11014021</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>163</v>
       </c>
@@ -2717,8 +2955,11 @@
       <c r="D72">
         <v>10871225</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -2731,8 +2972,11 @@
       <c r="D73">
         <v>10222334</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>167</v>
       </c>
@@ -2745,8 +2989,11 @@
       <c r="D74">
         <v>9403742</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>170</v>
       </c>
@@ -2759,8 +3006,11 @@
       <c r="D75">
         <v>10394076</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -2773,8 +3023,11 @@
       <c r="D76">
         <v>11380591</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -2787,8 +3040,11 @@
       <c r="D77">
         <v>10918532</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -2801,8 +3057,11 @@
       <c r="D78">
         <v>7088713</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -2815,8 +3074,11 @@
       <c r="D79">
         <v>8876038</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -2829,8 +3091,11 @@
       <c r="D80">
         <v>10844998</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -2843,8 +3108,11 @@
       <c r="D81">
         <v>11070048</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>184</v>
       </c>
@@ -2857,8 +3125,11 @@
       <c r="D82">
         <v>11557885</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>185</v>
       </c>
@@ -2871,8 +3142,11 @@
       <c r="D83">
         <v>4072405</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -2885,8 +3159,11 @@
       <c r="D84">
         <v>7441513</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>189</v>
       </c>
@@ -2899,8 +3176,11 @@
       <c r="D85">
         <v>11061003</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -2913,8 +3193,11 @@
       <c r="D86">
         <v>7712717</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>192</v>
       </c>
@@ -2927,8 +3210,11 @@
       <c r="D87">
         <v>6409565</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>194</v>
       </c>
@@ -2941,8 +3227,11 @@
       <c r="D88">
         <v>6928422</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>196</v>
       </c>
@@ -2955,8 +3244,11 @@
       <c r="D89">
         <v>9558664</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>198</v>
       </c>
@@ -2969,8 +3261,11 @@
       <c r="D90">
         <v>8216324</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>200</v>
       </c>
@@ -2983,8 +3278,11 @@
       <c r="D91">
         <v>9385075</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>201</v>
       </c>
@@ -2997,8 +3295,11 @@
       <c r="D92">
         <v>10459236</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>203</v>
       </c>
@@ -3011,8 +3312,11 @@
       <c r="D93">
         <v>11269670</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>205</v>
       </c>
@@ -3025,8 +3329,11 @@
       <c r="D94">
         <v>11246175</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -3039,8 +3346,11 @@
       <c r="D95">
         <v>8659844</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -3053,8 +3363,11 @@
       <c r="D96">
         <v>11456625</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>209</v>
       </c>
@@ -3067,8 +3380,11 @@
       <c r="D97">
         <v>11549793</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>211</v>
       </c>
@@ -3081,8 +3397,11 @@
       <c r="D98">
         <v>4287490</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>213</v>
       </c>
@@ -3095,8 +3414,11 @@
       <c r="D99">
         <v>6755501</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>214</v>
       </c>
@@ -3109,8 +3431,11 @@
       <c r="D100">
         <v>6766829</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>215</v>
       </c>
@@ -3123,8 +3448,11 @@
       <c r="D101">
         <v>11783050</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>217</v>
       </c>
@@ -3137,8 +3465,11 @@
       <c r="D102">
         <v>11497305</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>220</v>
       </c>
@@ -3151,8 +3482,11 @@
       <c r="D103">
         <v>7623803</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -3165,8 +3499,11 @@
       <c r="D104">
         <v>10117131</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>224</v>
       </c>
@@ -3179,8 +3516,11 @@
       <c r="D105">
         <v>11102212</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>225</v>
       </c>
@@ -3193,8 +3533,11 @@
       <c r="D106">
         <v>5903713</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>227</v>
       </c>
@@ -3207,8 +3550,11 @@
       <c r="D107">
         <v>10601900</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>228</v>
       </c>
@@ -3221,8 +3567,11 @@
       <c r="D108">
         <v>9193070</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>230</v>
       </c>
@@ -3235,8 +3584,11 @@
       <c r="D109">
         <v>8355960</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -3249,8 +3601,11 @@
       <c r="D110">
         <v>10215249</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -3263,8 +3618,11 @@
       <c r="D111">
         <v>5422718</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>236</v>
       </c>
@@ -3277,8 +3635,11 @@
       <c r="D112">
         <v>10578908</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>237</v>
       </c>
@@ -3291,8 +3652,11 @@
       <c r="D113">
         <v>4395570</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -3305,8 +3669,11 @@
       <c r="D114" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>242</v>
       </c>
@@ -3319,8 +3686,11 @@
       <c r="D115" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>245</v>
       </c>
@@ -3333,8 +3703,11 @@
       <c r="D116">
         <v>10002662</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>247</v>
       </c>
@@ -3347,8 +3720,11 @@
       <c r="D117">
         <v>11265844</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>249</v>
       </c>
@@ -3361,8 +3737,11 @@
       <c r="D118">
         <v>11970628</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -3375,8 +3754,11 @@
       <c r="D119">
         <v>11149533</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>251</v>
       </c>
@@ -3389,8 +3771,11 @@
       <c r="D120">
         <v>10961029</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>253</v>
       </c>
@@ -3403,8 +3788,11 @@
       <c r="D121">
         <v>11462356</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>254</v>
       </c>
@@ -3417,8 +3805,11 @@
       <c r="D122">
         <v>8662355</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>256</v>
       </c>
@@ -3431,8 +3822,11 @@
       <c r="D123" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>259</v>
       </c>
@@ -3445,8 +3839,11 @@
       <c r="D124">
         <v>10417552</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>261</v>
       </c>
@@ -3459,8 +3856,11 @@
       <c r="D125">
         <v>9897919</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>263</v>
       </c>
@@ -3473,8 +3873,11 @@
       <c r="D126">
         <v>12472532</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>265</v>
       </c>
@@ -3487,8 +3890,11 @@
       <c r="D127">
         <v>12213334</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>267</v>
       </c>
@@ -3501,8 +3907,11 @@
       <c r="D128">
         <v>10761317</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>269</v>
       </c>
@@ -3515,8 +3924,11 @@
       <c r="D129">
         <v>5246578</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>271</v>
       </c>
@@ -3529,8 +3941,11 @@
       <c r="D130">
         <v>12230765</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -3543,8 +3958,11 @@
       <c r="D131">
         <v>8491211</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>275</v>
       </c>
@@ -3557,8 +3975,11 @@
       <c r="D132">
         <v>6588495</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>277</v>
       </c>
@@ -3571,8 +3992,11 @@
       <c r="D133">
         <v>6397296</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>279</v>
       </c>
@@ -3585,8 +4009,11 @@
       <c r="D134">
         <v>11933108</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>281</v>
       </c>
@@ -3599,8 +4026,11 @@
       <c r="D135">
         <v>7959823</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>283</v>
       </c>
@@ -3613,8 +4043,11 @@
       <c r="D136">
         <v>3940921</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>284</v>
       </c>
@@ -3627,8 +4060,11 @@
       <c r="D137">
         <v>11610200</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>286</v>
       </c>
@@ -3641,8 +4077,11 @@
       <c r="D138">
         <v>6035209</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -3655,8 +4094,11 @@
       <c r="D139">
         <v>11680780</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>290</v>
       </c>
@@ -3669,8 +4111,11 @@
       <c r="D140">
         <v>5831884</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>292</v>
       </c>
@@ -3683,8 +4128,11 @@
       <c r="D141">
         <v>11932499</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>294</v>
       </c>
@@ -3697,8 +4145,11 @@
       <c r="D142">
         <v>5031907</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>296</v>
       </c>
@@ -3711,8 +4162,11 @@
       <c r="D143">
         <v>7095500</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>298</v>
       </c>
@@ -3725,8 +4179,11 @@
       <c r="D144">
         <v>11921832</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>300</v>
       </c>
@@ -3739,8 +4196,11 @@
       <c r="D145">
         <v>8364883</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>302</v>
       </c>
@@ -3753,8 +4213,11 @@
       <c r="D146">
         <v>9044866</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>304</v>
       </c>
@@ -3767,8 +4230,11 @@
       <c r="D147">
         <v>9561722</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>306</v>
       </c>
@@ -3781,8 +4247,11 @@
       <c r="D148">
         <v>8649018</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>308</v>
       </c>
@@ -3795,8 +4264,11 @@
       <c r="D149">
         <v>7427913</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>310</v>
       </c>
@@ -3809,8 +4281,11 @@
       <c r="D150">
         <v>5941947</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>312</v>
       </c>
@@ -3823,8 +4298,11 @@
       <c r="D151">
         <v>6730690</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>314</v>
       </c>
@@ -3837,8 +4315,11 @@
       <c r="D152">
         <v>7710467</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>316</v>
       </c>
@@ -3851,8 +4332,11 @@
       <c r="D153">
         <v>9016606</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>318</v>
       </c>
@@ -3865,8 +4349,11 @@
       <c r="D154">
         <v>9883437</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>320</v>
       </c>
@@ -3879,8 +4366,11 @@
       <c r="D155">
         <v>12578874</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>322</v>
       </c>
@@ -3893,8 +4383,11 @@
       <c r="D156">
         <v>11692215</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>323</v>
       </c>
@@ -3907,8 +4400,11 @@
       <c r="D157">
         <v>10677553</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>325</v>
       </c>
@@ -3921,8 +4417,11 @@
       <c r="D158">
         <v>7296761</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>326</v>
       </c>
@@ -3935,8 +4434,11 @@
       <c r="D159">
         <v>7653641</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>328</v>
       </c>
@@ -3949,8 +4451,11 @@
       <c r="D160">
         <v>12191299</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>329</v>
       </c>
@@ -3963,8 +4468,11 @@
       <c r="D161">
         <v>6337638</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -3977,8 +4485,11 @@
       <c r="D162">
         <v>11219580</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>333</v>
       </c>
@@ -3991,8 +4502,11 @@
       <c r="D163">
         <v>11700691</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>334</v>
       </c>
@@ -4005,8 +4519,11 @@
       <c r="D164">
         <v>11153882</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -4019,8 +4536,11 @@
       <c r="D165">
         <v>5899168</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>338</v>
       </c>
@@ -4033,8 +4553,11 @@
       <c r="D166">
         <v>6984177</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>340</v>
       </c>
@@ -4047,8 +4570,11 @@
       <c r="D167">
         <v>12181797</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>342</v>
       </c>
@@ -4061,8 +4587,11 @@
       <c r="D168">
         <v>12291057</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>344</v>
       </c>
@@ -4075,8 +4604,11 @@
       <c r="D169">
         <v>9163262</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>346</v>
       </c>
@@ -4089,8 +4621,11 @@
       <c r="D170">
         <v>10259575</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>348</v>
       </c>
@@ -4103,8 +4638,11 @@
       <c r="D171">
         <v>9502116</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>350</v>
       </c>
@@ -4117,8 +4655,11 @@
       <c r="D172">
         <v>10137848</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>352</v>
       </c>
@@ -4131,8 +4672,11 @@
       <c r="D173" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>355</v>
       </c>
@@ -4145,8 +4689,11 @@
       <c r="D174">
         <v>9570221</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>357</v>
       </c>
@@ -4159,8 +4706,11 @@
       <c r="D175">
         <v>11349561</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -4173,8 +4723,11 @@
       <c r="D176">
         <v>12039590</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -4187,8 +4740,11 @@
       <c r="D177">
         <v>8957689</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>362</v>
       </c>
@@ -4201,8 +4757,11 @@
       <c r="D178">
         <v>3937068</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>364</v>
       </c>
@@ -4215,8 +4774,11 @@
       <c r="D179">
         <v>11570670</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>366</v>
       </c>
@@ -4230,7 +4792,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>368</v>
       </c>
@@ -4243,8 +4805,11 @@
       <c r="D181">
         <v>10449216</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -4257,8 +4822,11 @@
       <c r="D182">
         <v>11801268</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>372</v>
       </c>
@@ -4271,8 +4839,11 @@
       <c r="D183">
         <v>11621763</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>373</v>
       </c>
@@ -4285,8 +4856,11 @@
       <c r="D184">
         <v>10283207</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -4299,8 +4873,11 @@
       <c r="D185">
         <v>10416468</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>378</v>
       </c>
@@ -4313,8 +4890,11 @@
       <c r="D186">
         <v>6323311</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>380</v>
       </c>
@@ -4327,8 +4907,11 @@
       <c r="D187">
         <v>5544575</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>381</v>
       </c>
@@ -4341,8 +4924,11 @@
       <c r="D188">
         <v>11738684</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -4355,8 +4941,11 @@
       <c r="D189">
         <v>5530040</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>385</v>
       </c>
@@ -4369,8 +4958,11 @@
       <c r="D190">
         <v>9595646</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>387</v>
       </c>
@@ -4383,8 +4975,11 @@
       <c r="D191">
         <v>5987300</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>389</v>
       </c>
@@ -4397,8 +4992,11 @@
       <c r="D192">
         <v>10637040</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>391</v>
       </c>
@@ -4411,8 +5009,11 @@
       <c r="D193">
         <v>8835541</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>393</v>
       </c>
@@ -4425,8 +5026,11 @@
       <c r="D194">
         <v>9641417</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>395</v>
       </c>
@@ -4439,8 +5043,11 @@
       <c r="D195">
         <v>10278251</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>397</v>
       </c>
@@ -4453,8 +5060,11 @@
       <c r="D196">
         <v>11972677</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>399</v>
       </c>
@@ -4467,8 +5077,11 @@
       <c r="D197">
         <v>11237740</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>400</v>
       </c>
@@ -4481,8 +5094,11 @@
       <c r="D198">
         <v>8053178</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>401</v>
       </c>
@@ -4495,8 +5111,11 @@
       <c r="D199">
         <v>10973066</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>403</v>
       </c>
@@ -4509,8 +5128,11 @@
       <c r="D200">
         <v>6589361</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>405</v>
       </c>
@@ -4523,8 +5145,11 @@
       <c r="D201">
         <v>9703795</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>407</v>
       </c>
@@ -4537,8 +5162,11 @@
       <c r="D202">
         <v>8461258</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>409</v>
       </c>
@@ -4551,8 +5179,11 @@
       <c r="D203">
         <v>12227815</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>411</v>
       </c>
@@ -4565,8 +5196,11 @@
       <c r="D204">
         <v>8878574</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>413</v>
       </c>
@@ -4579,8 +5213,11 @@
       <c r="D205">
         <v>9684132</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>415</v>
       </c>
@@ -4593,8 +5230,11 @@
       <c r="D206">
         <v>10485907</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>417</v>
       </c>
@@ -4607,8 +5247,11 @@
       <c r="D207">
         <v>10770584</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>419</v>
       </c>
@@ -4621,8 +5264,11 @@
       <c r="D208">
         <v>7666629</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>420</v>
       </c>
@@ -4635,8 +5281,11 @@
       <c r="D209">
         <v>8261731</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>422</v>
       </c>
@@ -4649,8 +5298,11 @@
       <c r="D210">
         <v>11920779</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>423</v>
       </c>
@@ -4663,8 +5315,11 @@
       <c r="D211">
         <v>9173402</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>425</v>
       </c>
@@ -4677,8 +5332,11 @@
       <c r="D212">
         <v>8515940</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>426</v>
       </c>
@@ -4691,8 +5349,11 @@
       <c r="D213">
         <v>9204810</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>428</v>
       </c>
@@ -4705,8 +5366,11 @@
       <c r="D214">
         <v>7895399</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -4719,8 +5383,11 @@
       <c r="D215">
         <v>6085862</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>432</v>
       </c>
@@ -4733,8 +5400,11 @@
       <c r="D216">
         <v>8134141</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>435</v>
       </c>
@@ -4747,8 +5417,11 @@
       <c r="D217">
         <v>4008083</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>436</v>
       </c>
@@ -4761,8 +5434,11 @@
       <c r="D218">
         <v>8804411</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -4773,6 +5449,23 @@
         <v>147</v>
       </c>
       <c r="D219">
+        <v>9334596</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>437</v>
+      </c>
+      <c r="B220" t="s">
+        <v>438</v>
+      </c>
+      <c r="C220" t="s">
+        <v>147</v>
+      </c>
+      <c r="D220">
         <v>9334596</v>
       </c>
     </row>

--- a/united_kingdom_emis.xlsx
+++ b/united_kingdom_emis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{CE1F1532-B8C2-42A4-8164-6A54270B0CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDEA485F-9587-4D8B-9BB8-4F4028B95365}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{CE1F1532-B8C2-42A4-8164-6A54270B0CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E4CEBEA-D0D1-476F-AED9-B860D8A71471}"/>
   <bookViews>
-    <workbookView xWindow="-20892" yWindow="1128" windowWidth="21600" windowHeight="11832" xr2:uid="{59B98C91-C7A5-453D-9C0B-275855501387}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11775" xr2:uid="{59B98C91-C7A5-453D-9C0B-275855501387}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,21 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="443">
-  <si>
-    <t>Transferwise Ltd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="604">
   <si>
     <t>international money transfers</t>
   </si>
   <si>
     <t> (4.6)</t>
-  </si>
-  <si>
-    <t>CB Payments Ltd</t>
-  </si>
-  <si>
-    <t>providing cryptocurrency platform</t>
   </si>
   <si>
     <t> (1.6)</t>
@@ -1371,6 +1362,498 @@
     <t xml:space="preserve">
                     Converted / Closed
                 </t>
+  </si>
+  <si>
+    <t>https://www.curve.com › en-gb</t>
+  </si>
+  <si>
+    <t>https://dynapay.co.uk</t>
+  </si>
+  <si>
+    <t>https://monese.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.mypos.eu</t>
+  </si>
+  <si>
+    <t>https://www.soldo.com › en-gb › about-us</t>
+  </si>
+  <si>
+    <t>https://www.torfx.com</t>
+  </si>
+  <si>
+    <t>https://www.ofx.com › en-gb</t>
+  </si>
+  <si>
+    <t>https://www.worldremit.com › ...</t>
+  </si>
+  <si>
+    <t>http://3s.money</t>
+  </si>
+  <si>
+    <t>https://www.alliedwallet.com</t>
+  </si>
+  <si>
+    <t>https://www.cashplus.com › about</t>
+  </si>
+  <si>
+    <t>https://bilderlings.com</t>
+  </si>
+  <si>
+    <t>https://find-and-update.company-information.service.gov.uk › ...</t>
+  </si>
+  <si>
+    <t>https://www.cashflows.com › contact</t>
+  </si>
+  <si>
+    <t>https://www.cornercard.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.currenciesdirect.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.decta.com</t>
+  </si>
+  <si>
+    <t>https://www.emerchantpay.com</t>
+  </si>
+  <si>
+    <t>https://www.currencies.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.mercury-fx.com</t>
+  </si>
+  <si>
+    <t>https://www.paysafe.com › us-en</t>
+  </si>
+  <si>
+    <t>https://paysend.com</t>
+  </si>
+  <si>
+    <t>https://www.pockit.com</t>
+  </si>
+  <si>
+    <t>https://www.skrill.com › ...</t>
+  </si>
+  <si>
+    <t>https://sumup.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.aicorporation.com</t>
+  </si>
+  <si>
+    <t>https://www.wirecard-cardsolutions.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.worldfirst.com › uk</t>
+  </si>
+  <si>
+    <t>https://www.aplus-payments.com</t>
+  </si>
+  <si>
+    <t>https://www.aceunion.com</t>
+  </si>
+  <si>
+    <t>https://www.afpay.com</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu › ... › List of EMIs › United Kingdom</t>
+  </si>
+  <si>
+    <t>https://www.airwallex.com › uk</t>
+  </si>
+  <si>
+    <t>https://www.allpay.net</t>
+  </si>
+  <si>
+    <t>https://www.allstarcard.co.uk › contact-us</t>
+  </si>
+  <si>
+    <t>https://www.alphafx.co.uk</t>
+  </si>
+  <si>
+    <t>https://altalix.com</t>
+  </si>
+  <si>
+    <t>https://altpay.uk</t>
+  </si>
+  <si>
+    <t>https://amaiz.com</t>
+  </si>
+  <si>
+    <t>https://www.argentex.com</t>
+  </si>
+  <si>
+    <t>https://b2bpaysolution.com</t>
+  </si>
+  <si>
+    <t>https://www.redbanx.com</t>
+  </si>
+  <si>
+    <t>https://www.bastion-fingroup.com</t>
+  </si>
+  <si>
+    <t>https://bedfordpay.com</t>
+  </si>
+  <si>
+    <t>https://billongroup.com › billonfinancial</t>
+  </si>
+  <si>
+    <t>https://www.blablaconnect.com</t>
+  </si>
+  <si>
+    <t>https://blackhawknetwork.com › uk-en › news</t>
+  </si>
+  <si>
+    <t>https://britannia.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.cambridgefx.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.caxtonfx.com</t>
+  </si>
+  <si>
+    <t>https://www.centtrip.com</t>
+  </si>
+  <si>
+    <t>https://www.cfszipp.com</t>
+  </si>
+  <si>
+    <t>https://www.checkout.com</t>
+  </si>
+  <si>
+    <t>https://clearjunction.com</t>
+  </si>
+  <si>
+    <t>https://www.currenxie.com › en-gb</t>
+  </si>
+  <si>
+    <t>https://digitalcapital.co.uk</t>
+  </si>
+  <si>
+    <t>https://dipocket.org</t>
+  </si>
+  <si>
+    <t>https://www.disberse.com</t>
+  </si>
+  <si>
+    <t>https://www.dzing.com</t>
+  </si>
+  <si>
+    <t>https://business.ebanx.com › ...</t>
+  </si>
+  <si>
+    <t>https://ebury.com</t>
+  </si>
+  <si>
+    <t>https://ecomm365.com</t>
+  </si>
+  <si>
+    <t>https://elpaso.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.entropay.com</t>
+  </si>
+  <si>
+    <t>https://www.enumis.co.uk</t>
+  </si>
+  <si>
+    <t>https://etamoney.com</t>
+  </si>
+  <si>
+    <t>https://www.euroexchangesecurities.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.euronetatms.com › about</t>
+  </si>
+  <si>
+    <t>https://www.fasterpay.com</t>
+  </si>
+  <si>
+    <t>https://www.financialhouse.io</t>
+  </si>
+  <si>
+    <t>https://finblocks.net</t>
+  </si>
+  <si>
+    <t>https://www.fincofex.com</t>
+  </si>
+  <si>
+    <t>http://www.finpaytech.com</t>
+  </si>
+  <si>
+    <t>https://www.thefintechvalley.org</t>
+  </si>
+  <si>
+    <t>https://www.fire.com</t>
+  </si>
+  <si>
+    <t>https://www.firstrate.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.fgc-capital.com</t>
+  </si>
+  <si>
+    <t>https://www.fxpro.com › invest</t>
+  </si>
+  <si>
+    <t>https://gbxp.uk</t>
+  </si>
+  <si>
+    <t>https://www.gemini.com › legal › gemini-europe-services</t>
+  </si>
+  <si>
+    <t>https://glintpay.com</t>
+  </si>
+  <si>
+    <t>https://www.gsf.uk.com</t>
+  </si>
+  <si>
+    <t>https://guavapayment.com</t>
+  </si>
+  <si>
+    <t>https://www.gvsprepaid.com</t>
+  </si>
+  <si>
+    <t>https://www.hl.co.uk › investment-services › active-savi...</t>
+  </si>
+  <si>
+    <t>https://www.ifxpayments.com › about</t>
+  </si>
+  <si>
+    <t>https://impulsepay.com</t>
+  </si>
+  <si>
+    <t>https://www.fca.org.uk › news › news-stories › ipagoo-l...</t>
+  </si>
+  <si>
+    <t>https://www.littlestartsgiftcards.com</t>
+  </si>
+  <si>
+    <t>https://luxon.com</t>
+  </si>
+  <si>
+    <t>https://www.mifinity.com</t>
+  </si>
+  <si>
+    <t>https://mirlimited.com</t>
+  </si>
+  <si>
+    <t>https://www.modulrfinance.com</t>
+  </si>
+  <si>
+    <t>https://www.monavate.com</t>
+  </si>
+  <si>
+    <t>https://moneliq.com</t>
+  </si>
+  <si>
+    <t>https://moneyfold.co.uk</t>
+  </si>
+  <si>
+    <t>https://moneynetint.com</t>
+  </si>
+  <si>
+    <t>https://montify.com</t>
+  </si>
+  <si>
+    <t>https://www.moorwand.com</t>
+  </si>
+  <si>
+    <t>https://www.msbbmoney.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.nochex.com</t>
+  </si>
+  <si>
+    <t>https://noveba.com</t>
+  </si>
+  <si>
+    <t>https://nvayo.co.uk</t>
+  </si>
+  <si>
+    <t>https://1mm.eu</t>
+  </si>
+  <si>
+    <t>https://www.fca.org.uk › news › statements › informati...</t>
+  </si>
+  <si>
+    <t>https://optal.com</t>
+  </si>
+  <si>
+    <t>https://www.optimuscards.com</t>
+  </si>
+  <si>
+    <t>https://www.ozan.com</t>
+  </si>
+  <si>
+    <t>https://www.paybase.io</t>
+  </si>
+  <si>
+    <t>https://www.payen.com</t>
+  </si>
+  <si>
+    <t>https://www.paymentsense.com</t>
+  </si>
+  <si>
+    <t>https://paynetworx.co.uk</t>
+  </si>
+  <si>
+    <t>https://payoma.com</t>
+  </si>
+  <si>
+    <t>https://www.railsbank.com › payrnet</t>
+  </si>
+  <si>
+    <t>https://www.payver.eu</t>
+  </si>
+  <si>
+    <t>https://paywiser.com</t>
+  </si>
+  <si>
+    <t>https://www.payxpert.com</t>
+  </si>
+  <si>
+    <t>https://www.ppro.com</t>
+  </si>
+  <si>
+    <t>https://prepaidfinancialservices.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.privalgo.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.privat3money.com</t>
+  </si>
+  <si>
+    <t>https://www.projectimagine.com</t>
+  </si>
+  <si>
+    <t>https://www.psi-pay.co.uk</t>
+  </si>
+  <si>
+    <t>https://recary.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.rexelpay.com</t>
+  </si>
+  <si>
+    <t>https://right-card.com</t>
+  </si>
+  <si>
+    <t>https://www.safenetpay.com</t>
+  </si>
+  <si>
+    <t>https://www.satispay.com › en-it</t>
+  </si>
+  <si>
+    <t>https://sedel.swifin.com</t>
+  </si>
+  <si>
+    <t>https://www.settlego.com</t>
+  </si>
+  <si>
+    <t>http://www.shrap.co.uk</t>
+  </si>
+  <si>
+    <t>https://squareup.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.squidcard.com</t>
+  </si>
+  <si>
+    <t>https://straal.com</t>
+  </si>
+  <si>
+    <t>https://sync.money</t>
+  </si>
+  <si>
+    <t>https://www.talkremit.com</t>
+  </si>
+  <si>
+    <t>https://www.currencycloud.com</t>
+  </si>
+  <si>
+    <t>https://www.foremostcurrencygroup.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.thinkmoney.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com › profile › company</t>
+  </si>
+  <si>
+    <t>https://transactiveltd.com</t>
+  </si>
+  <si>
+    <t>https://www.transactworld.co.uk</t>
+  </si>
+  <si>
+    <t>https://truelayer.com</t>
+  </si>
+  <si>
+    <t>https://www.valitor.com</t>
+  </si>
+  <si>
+    <t>https://www.vertofx.com</t>
+  </si>
+  <si>
+    <t>https://www.vfxfinancial.com</t>
+  </si>
+  <si>
+    <t>https://vitessepsp.com</t>
+  </si>
+  <si>
+    <t>https://www.wexeurope.com</t>
+  </si>
+  <si>
+    <t>https://wirebloom.com</t>
+  </si>
+  <si>
+    <t>https://www.wirepayer.com</t>
+  </si>
+  <si>
+    <t>https://xpate.com</t>
+  </si>
+  <si>
+    <t>https://yoyowallet.com</t>
+  </si>
+  <si>
+    <t>https://www.ziglu.io</t>
+  </si>
+  <si>
+    <t>https://azimo.com › ...</t>
+  </si>
+  <si>
+    <t>https://contis.com</t>
+  </si>
+  <si>
+    <t>https://www.epayments.com</t>
+  </si>
+  <si>
+    <t>https://www.pps.edenred.com</t>
+  </si>
+  <si>
+    <t>https://www.revolut.com</t>
+  </si>
+  <si>
+    <t>https://wirexapp.com</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.hyperwallet.com</t>
+  </si>
+  <si>
+    <t>https://www.enginepartsuk.net › payen</t>
+  </si>
+  <si>
+    <t>https://www.vfxfinancial.com › contact-us</t>
+  </si>
+  <si>
+    <t>https://www.wmtransfer.com</t>
   </si>
 </sst>
 </file>
@@ -1725,9 +2208,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C898DA-5C90-4444-9CDC-60E06881943E}">
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1736,383 +2219,516 @@
     <col min="1" max="1" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>9523903</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>10841289</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>8720992</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>10630670</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>9495650</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>7209813</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>9708629</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>9523903</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>10841289</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>5193147</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>8720992</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>10630670</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7">
+        <v>4631395</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>7110878</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>9495650</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>5193147</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9">
+        <v>8574246</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>5832811</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" t="s">
+        <v>449</v>
+      </c>
+      <c r="G10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>6029941</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>4631395</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>7110878</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>8574246</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12">
-        <v>5832811</v>
+        <v>9908958</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>6029941</v>
+        <v>10207686</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F13" t="s">
+        <v>452</v>
+      </c>
+      <c r="G13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>9908958</v>
+        <v>5428358</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F14" t="s">
+        <v>453</v>
+      </c>
+      <c r="G14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>10207686</v>
+        <v>8542957</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>5428358</v>
+        <v>3041197</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F16" t="s">
+        <v>455</v>
+      </c>
+      <c r="G16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>8542957</v>
+        <v>9926210</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F17" t="s">
+        <v>456</v>
+      </c>
+      <c r="G17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>3041197</v>
+        <v>5153270</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F18" t="s">
+        <v>457</v>
+      </c>
+      <c r="G18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>9926210</v>
+        <v>10063984</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F19" t="s">
+        <v>452</v>
+      </c>
+      <c r="G19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>5153270</v>
+        <v>5082565</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F20" t="s">
+        <v>458</v>
+      </c>
+      <c r="G20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>5452483</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F21" t="s">
+        <v>452</v>
+      </c>
+      <c r="G21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>10063984</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>5082565</v>
+        <v>6445887</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F22" t="s">
+        <v>459</v>
+      </c>
+      <c r="G22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2120,693 +2736,940 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>5452483</v>
+        <v>4478861</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F23" t="s">
+        <v>460</v>
+      </c>
+      <c r="G23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24">
-        <v>6445887</v>
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F24" t="s">
+        <v>461</v>
+      </c>
+      <c r="G24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>4478861</v>
+        <v>7157877</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F25" t="s">
+        <v>462</v>
+      </c>
+      <c r="G25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>5761861</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>4260907</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F27" t="s">
+        <v>463</v>
+      </c>
+      <c r="G27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>8480771</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F28" t="s">
+        <v>452</v>
+      </c>
+      <c r="G28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>7836562</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F29" t="s">
+        <v>464</v>
+      </c>
+      <c r="G29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>3504225</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>7875693</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F31" t="s">
+        <v>466</v>
+      </c>
+      <c r="G31" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27">
-        <v>7157877</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28">
-        <v>5761861</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>4260907</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30">
-        <v>8480771</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31">
-        <v>7836562</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
       <c r="D32">
-        <v>3504225</v>
+        <v>5022388</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F32" t="s">
+        <v>467</v>
+      </c>
+      <c r="G32" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>7875693</v>
+        <v>11815332</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F33" t="s">
+        <v>468</v>
+      </c>
+      <c r="G33" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>9530233</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F34" t="s">
+        <v>469</v>
+      </c>
+      <c r="G34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>9356276</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36">
+        <v>9392688</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F36" t="s">
+        <v>471</v>
+      </c>
+      <c r="G36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>10103420</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F37" t="s">
+        <v>472</v>
+      </c>
+      <c r="G37" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>8098385</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F38" t="s">
+        <v>452</v>
+      </c>
+      <c r="G38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>2933191</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F39" t="s">
+        <v>473</v>
+      </c>
+      <c r="G39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40">
+        <v>2631112</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F40" t="s">
+        <v>474</v>
+      </c>
+      <c r="G40" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>5108142</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F41" t="s">
+        <v>475</v>
+      </c>
+      <c r="G41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>10408510</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F42" t="s">
+        <v>476</v>
+      </c>
+      <c r="G42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>11347482</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F43" t="s">
+        <v>477</v>
+      </c>
+      <c r="G43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>10977384</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F44" t="s">
+        <v>478</v>
+      </c>
+      <c r="G44" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" t="s">
+        <v>452</v>
+      </c>
+      <c r="G45" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46">
+        <v>10583935</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F47" t="s">
+        <v>479</v>
+      </c>
+      <c r="G47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48">
+        <v>9609407</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F48" t="s">
+        <v>452</v>
+      </c>
+      <c r="G48" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>12108869</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F49" t="s">
+        <v>452</v>
+      </c>
+      <c r="G49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50">
+        <v>12533411</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F50" t="s">
+        <v>480</v>
+      </c>
+      <c r="G50" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51">
+        <v>10452111</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F51" t="s">
+        <v>481</v>
+      </c>
+      <c r="G51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52">
+        <v>7930355</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F52" t="s">
+        <v>471</v>
+      </c>
+      <c r="G52" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53">
+        <v>11611661</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F53" t="s">
+        <v>482</v>
+      </c>
+      <c r="G53" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>11082273</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F54" t="s">
+        <v>483</v>
+      </c>
+      <c r="G54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55">
+        <v>11366159</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F55" t="s">
+        <v>452</v>
+      </c>
+      <c r="G55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>10169337</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F56" t="s">
+        <v>484</v>
+      </c>
+      <c r="G56" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>8246355</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F57" t="s">
+        <v>485</v>
+      </c>
+      <c r="G57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58">
+        <v>5802971</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F58" t="s">
+        <v>486</v>
+      </c>
+      <c r="G58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" t="s">
         <v>2</v>
       </c>
-      <c r="D34">
-        <v>5022388</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35">
-        <v>11815332</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36">
-        <v>9530233</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37">
-        <v>9356276</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38">
-        <v>9392688</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39">
-        <v>10103420</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40">
-        <v>8098385</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41">
-        <v>2933191</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42">
-        <v>2631112</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43">
-        <v>5108142</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44">
-        <v>10408510</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45">
-        <v>11347482</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>10977384</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48">
-        <v>10583935</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50">
-        <v>9609407</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51">
-        <v>12108869</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52">
-        <v>12533411</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53">
-        <v>10452111</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54">
-        <v>7930355</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55">
-        <v>11611661</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56">
-        <v>11082273</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57">
-        <v>11366159</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58">
-        <v>10169337</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>136</v>
-      </c>
-      <c r="B59" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
       <c r="D59">
-        <v>8246355</v>
+        <v>6169107</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F59" t="s">
+        <v>452</v>
+      </c>
+      <c r="G59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>5802971</v>
+        <v>12136387</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F60" t="s">
+        <v>487</v>
+      </c>
+      <c r="G60" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D61">
-        <v>6169107</v>
+        <v>5271222</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F61" t="s">
+        <v>488</v>
+      </c>
+      <c r="G61" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>12136387</v>
+        <v>4610337</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F62" t="s">
+        <v>489</v>
+      </c>
+      <c r="G62" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D63">
-        <v>5271222</v>
+        <v>8651138</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F63" t="s">
+        <v>490</v>
+      </c>
+      <c r="G63" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -2814,339 +3677,459 @@
         <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D64">
-        <v>4610337</v>
+        <v>3925386</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F64" t="s">
+        <v>491</v>
+      </c>
+      <c r="G64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D65">
-        <v>8651138</v>
+        <v>8037323</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F65" t="s">
+        <v>492</v>
+      </c>
+      <c r="G65" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D66">
-        <v>3925386</v>
+        <v>9543077</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F66" t="s">
+        <v>452</v>
+      </c>
+      <c r="G66" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D67">
-        <v>8037323</v>
+        <v>10266827</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F67" t="s">
+        <v>493</v>
+      </c>
+      <c r="G67" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="D68">
-        <v>9543077</v>
+        <v>7805564</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F68" t="s">
+        <v>452</v>
+      </c>
+      <c r="G68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="D69">
-        <v>10266827</v>
+        <v>11014021</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F69" t="s">
+        <v>494</v>
+      </c>
+      <c r="G69" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D70">
-        <v>7805564</v>
+        <v>10871225</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F70" t="s">
+        <v>452</v>
+      </c>
+      <c r="G70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D71">
-        <v>11014021</v>
+        <v>10222334</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F71" t="s">
+        <v>495</v>
+      </c>
+      <c r="G71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="D72">
-        <v>10871225</v>
+        <v>9403742</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F72" t="s">
+        <v>496</v>
+      </c>
+      <c r="G72" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D73">
-        <v>10222334</v>
+        <v>10394076</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F73" t="s">
+        <v>497</v>
+      </c>
+      <c r="G73" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D74">
-        <v>9403742</v>
+        <v>11380591</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F74" t="s">
+        <v>498</v>
+      </c>
+      <c r="G74" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="D75">
-        <v>10394076</v>
+        <v>10918532</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F75" t="s">
+        <v>499</v>
+      </c>
+      <c r="G75" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>11380591</v>
+        <v>7088713</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F76" t="s">
+        <v>500</v>
+      </c>
+      <c r="G76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="D77">
-        <v>10918532</v>
+        <v>8876038</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F77" t="s">
+        <v>501</v>
+      </c>
+      <c r="G77" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D78">
-        <v>7088713</v>
+        <v>10844998</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F78" t="s">
+        <v>452</v>
+      </c>
+      <c r="G78" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D79">
-        <v>8876038</v>
+        <v>11070048</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F79" t="s">
+        <v>502</v>
+      </c>
+      <c r="G79" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
       <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80">
+        <v>11557885</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F80" t="s">
+        <v>452</v>
+      </c>
+      <c r="G80" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>182</v>
       </c>
-      <c r="C80" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80">
-        <v>10844998</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>183</v>
       </c>
-      <c r="B81" t="s">
-        <v>133</v>
-      </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D81">
-        <v>11070048</v>
+        <v>4072405</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F81" t="s">
+        <v>503</v>
+      </c>
+      <c r="G81" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D82">
-        <v>11557885</v>
+        <v>7441513</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F82" t="s">
+        <v>504</v>
+      </c>
+      <c r="G82" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D83">
-        <v>4072405</v>
+        <v>11061003</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F83" t="s">
+        <v>505</v>
+      </c>
+      <c r="G83" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -3154,152 +4137,206 @@
         <v>188</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D84">
-        <v>7441513</v>
+        <v>7712717</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F84" t="s">
+        <v>452</v>
+      </c>
+      <c r="G84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>189</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D85">
-        <v>11061003</v>
+        <v>6409565</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F85" t="s">
+        <v>506</v>
+      </c>
+      <c r="G85" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D86">
-        <v>7712717</v>
+        <v>6928422</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F86" t="s">
+        <v>507</v>
+      </c>
+      <c r="G86" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>6409565</v>
+        <v>9558664</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F87" t="s">
+        <v>452</v>
+      </c>
+      <c r="G87" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="D88">
-        <v>6928422</v>
+        <v>8216324</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F88" t="s">
+        <v>508</v>
+      </c>
+      <c r="G88" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D89">
-        <v>9558664</v>
+        <v>9385075</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F89" t="s">
+        <v>452</v>
+      </c>
+      <c r="G89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>198</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="D90">
-        <v>8216324</v>
+        <v>10459236</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F90" t="s">
+        <v>509</v>
+      </c>
+      <c r="G90" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>200</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D91">
-        <v>9385075</v>
+        <v>11269670</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F91" t="s">
+        <v>510</v>
+      </c>
+      <c r="G91" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D92">
-        <v>10459236</v>
+        <v>11246175</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F92" t="s">
+        <v>511</v>
+      </c>
+      <c r="G92" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>203</v>
       </c>
@@ -3307,33 +4344,45 @@
         <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D93">
-        <v>11269670</v>
+        <v>8659844</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F93" t="s">
+        <v>512</v>
+      </c>
+      <c r="G93" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>205</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D94">
-        <v>11246175</v>
+        <v>11456625</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F94" t="s">
+        <v>513</v>
+      </c>
+      <c r="G94" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -3341,152 +4390,206 @@
         <v>207</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>8659844</v>
+        <v>11549793</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F95" t="s">
+        <v>514</v>
+      </c>
+      <c r="G95" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>208</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D96">
-        <v>11456625</v>
+        <v>4287490</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F96" t="s">
+        <v>515</v>
+      </c>
+      <c r="G96" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D97">
-        <v>11549793</v>
+        <v>6755501</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F97" t="s">
+        <v>516</v>
+      </c>
+      <c r="G97" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>211</v>
       </c>
       <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98">
+        <v>6766829</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F98" t="s">
+        <v>517</v>
+      </c>
+      <c r="G98" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>212</v>
       </c>
-      <c r="C98" t="s">
-        <v>32</v>
-      </c>
-      <c r="D98">
-        <v>4287490</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
         <v>213</v>
       </c>
-      <c r="B99" t="s">
-        <v>53</v>
-      </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D99">
-        <v>6755501</v>
+        <v>11783050</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F99" t="s">
+        <v>518</v>
+      </c>
+      <c r="G99" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>214</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D100">
-        <v>6766829</v>
+        <v>11497305</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F100" t="s">
+        <v>519</v>
+      </c>
+      <c r="G100" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D101">
-        <v>11783050</v>
+        <v>7623803</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F101" t="s">
+        <v>452</v>
+      </c>
+      <c r="G101" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>11497305</v>
+        <v>10117131</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F102" t="s">
+        <v>520</v>
+      </c>
+      <c r="G102" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D103">
-        <v>7623803</v>
+        <v>11102212</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F103" t="s">
+        <v>521</v>
+      </c>
+      <c r="G103" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -3494,33 +4597,45 @@
         <v>223</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D104">
-        <v>10117131</v>
+        <v>5903713</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F104" t="s">
+        <v>452</v>
+      </c>
+      <c r="G104" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D105">
-        <v>11102212</v>
+        <v>10601900</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F105" t="s">
+        <v>522</v>
+      </c>
+      <c r="G105" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>225</v>
       </c>
@@ -3528,84 +4643,114 @@
         <v>226</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D106">
-        <v>5903713</v>
+        <v>9193070</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F106" t="s">
+        <v>523</v>
+      </c>
+      <c r="G106" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>227</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D107">
-        <v>10601900</v>
+        <v>8355960</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F107" t="s">
+        <v>524</v>
+      </c>
+      <c r="G107" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D108">
-        <v>9193070</v>
+        <v>10215249</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F108" t="s">
+        <v>471</v>
+      </c>
+      <c r="G108" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D109">
-        <v>8355960</v>
+        <v>5422718</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F109" t="s">
+        <v>525</v>
+      </c>
+      <c r="G109" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B110" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D110">
-        <v>10215249</v>
+        <v>10578908</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F110" t="s">
+        <v>452</v>
+      </c>
+      <c r="G110" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -3613,152 +4758,206 @@
         <v>235</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D111">
-        <v>5422718</v>
+        <v>4395570</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F111" t="s">
+        <v>526</v>
+      </c>
+      <c r="G111" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>236</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
-      </c>
-      <c r="D112">
-        <v>10578908</v>
+        <v>51</v>
+      </c>
+      <c r="D112" t="s">
+        <v>238</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F112" t="s">
+        <v>452</v>
+      </c>
+      <c r="G112" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113">
-        <v>4395570</v>
+        <v>29</v>
+      </c>
+      <c r="D113" t="s">
+        <v>241</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="F113" t="s">
+        <v>527</v>
+      </c>
+      <c r="G113" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B114" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114" t="s">
-        <v>241</v>
+        <v>29</v>
+      </c>
+      <c r="D114">
+        <v>10002662</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F114" t="s">
+        <v>452</v>
+      </c>
+      <c r="G114" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
-      </c>
-      <c r="D115" t="s">
-        <v>244</v>
+        <v>29</v>
+      </c>
+      <c r="D115">
+        <v>11265844</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="F115" t="s">
+        <v>452</v>
+      </c>
+      <c r="G115" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D116">
-        <v>10002662</v>
+        <v>11970628</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F116" t="s">
+        <v>452</v>
+      </c>
+      <c r="G116" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>247</v>
       </c>
       <c r="B117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>11149533</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F117" t="s">
+        <v>528</v>
+      </c>
+      <c r="G117" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>248</v>
       </c>
-      <c r="C117" t="s">
-        <v>32</v>
-      </c>
-      <c r="D117">
-        <v>11265844</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
         <v>249</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D118">
-        <v>11970628</v>
+        <v>10961029</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F118" t="s">
+        <v>452</v>
+      </c>
+      <c r="G118" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D119">
-        <v>11149533</v>
+        <v>11462356</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F119" t="s">
+        <v>529</v>
+      </c>
+      <c r="G119" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>251</v>
       </c>
@@ -3766,254 +4965,344 @@
         <v>252</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D120">
-        <v>10961029</v>
+        <v>8662355</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F120" t="s">
+        <v>452</v>
+      </c>
+      <c r="G120" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>253</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
-      </c>
-      <c r="D121">
-        <v>11462356</v>
+        <v>100</v>
+      </c>
+      <c r="D121" t="s">
+        <v>255</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F121" t="s">
+        <v>530</v>
+      </c>
+      <c r="G121" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D122">
-        <v>8662355</v>
+        <v>10417552</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F122" t="s">
+        <v>531</v>
+      </c>
+      <c r="G122" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C123" t="s">
-        <v>103</v>
-      </c>
-      <c r="D123" t="s">
-        <v>258</v>
+        <v>29</v>
+      </c>
+      <c r="D123">
+        <v>9897919</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F123" t="s">
+        <v>532</v>
+      </c>
+      <c r="G123" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D124">
-        <v>10417552</v>
+        <v>12472532</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F124" t="s">
+        <v>533</v>
+      </c>
+      <c r="G124" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D125">
-        <v>9897919</v>
+        <v>12213334</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F125" t="s">
+        <v>534</v>
+      </c>
+      <c r="G125" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D126">
-        <v>12472532</v>
+        <v>10761317</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F126" t="s">
+        <v>535</v>
+      </c>
+      <c r="G126" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D127">
-        <v>12213334</v>
+        <v>5246578</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F127" t="s">
+        <v>536</v>
+      </c>
+      <c r="G127" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D128">
-        <v>10761317</v>
+        <v>12230765</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F128" t="s">
+        <v>537</v>
+      </c>
+      <c r="G128" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D129">
-        <v>5246578</v>
+        <v>8491211</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F129" t="s">
+        <v>538</v>
+      </c>
+      <c r="G129" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D130">
-        <v>12230765</v>
+        <v>6588495</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F130" t="s">
+        <v>452</v>
+      </c>
+      <c r="G130" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B131" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D131">
-        <v>8491211</v>
+        <v>6397296</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F131" t="s">
+        <v>539</v>
+      </c>
+      <c r="G131" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B132" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D132">
-        <v>6588495</v>
+        <v>11933108</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F132" t="s">
+        <v>452</v>
+      </c>
+      <c r="G132" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B133" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D133">
-        <v>6397296</v>
+        <v>7959823</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F133" t="s">
+        <v>452</v>
+      </c>
+      <c r="G133" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B134" t="s">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D134">
-        <v>11933108</v>
+        <v>3940921</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F134" t="s">
+        <v>540</v>
+      </c>
+      <c r="G134" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>281</v>
       </c>
@@ -4021,339 +5310,459 @@
         <v>282</v>
       </c>
       <c r="C135" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="D135">
-        <v>7959823</v>
+        <v>11610200</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F135" t="s">
+        <v>541</v>
+      </c>
+      <c r="G135" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c r="C136" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D136">
-        <v>3940921</v>
+        <v>6035209</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F136" t="s">
+        <v>542</v>
+      </c>
+      <c r="G136" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C137" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="D137">
-        <v>11610200</v>
+        <v>11680780</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F137" t="s">
+        <v>452</v>
+      </c>
+      <c r="G137" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D138">
-        <v>6035209</v>
+        <v>5831884</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F138" t="s">
+        <v>452</v>
+      </c>
+      <c r="G138" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D139">
-        <v>11680780</v>
+        <v>11932499</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F139" t="s">
+        <v>452</v>
+      </c>
+      <c r="G139" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
       </c>
       <c r="D140">
-        <v>5831884</v>
+        <v>5031907</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F140" t="s">
+        <v>543</v>
+      </c>
+      <c r="G140" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D141">
-        <v>11932499</v>
+        <v>7095500</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="F141" t="s">
+        <v>544</v>
+      </c>
+      <c r="G141" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D142">
-        <v>5031907</v>
+        <v>11921832</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F142" t="s">
+        <v>452</v>
+      </c>
+      <c r="G142" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B143" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D143">
-        <v>7095500</v>
+        <v>8364883</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F143" t="s">
+        <v>545</v>
+      </c>
+      <c r="G143" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D144">
-        <v>11921832</v>
+        <v>9044866</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F144" t="s">
+        <v>546</v>
+      </c>
+      <c r="G144" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D145">
-        <v>8364883</v>
+        <v>9561722</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F145" t="s">
+        <v>547</v>
+      </c>
+      <c r="G145" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B146" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D146">
-        <v>9044866</v>
+        <v>8649018</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F146" t="s">
+        <v>548</v>
+      </c>
+      <c r="G146" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D147">
-        <v>9561722</v>
+        <v>7427913</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F147" t="s">
+        <v>549</v>
+      </c>
+      <c r="G147" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B148" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="D148">
-        <v>8649018</v>
+        <v>5941947</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F148" t="s">
+        <v>452</v>
+      </c>
+      <c r="G148" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B149" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D149">
-        <v>7427913</v>
+        <v>6730690</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F149" t="s">
+        <v>550</v>
+      </c>
+      <c r="G149" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B150" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="C150" t="s">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="D150">
-        <v>5941947</v>
+        <v>7710467</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F150" t="s">
+        <v>551</v>
+      </c>
+      <c r="G150" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B151" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C151" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D151">
-        <v>6730690</v>
+        <v>9016606</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F151" t="s">
+        <v>552</v>
+      </c>
+      <c r="G151" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B152" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D152">
-        <v>7710467</v>
+        <v>9883437</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F152" t="s">
+        <v>553</v>
+      </c>
+      <c r="G152" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B153" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D153">
-        <v>9016606</v>
+        <v>12578874</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F153" t="s">
+        <v>452</v>
+      </c>
+      <c r="G153" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B154" t="s">
-        <v>319</v>
+        <v>94</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D154">
-        <v>9883437</v>
+        <v>11692215</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F154" t="s">
+        <v>554</v>
+      </c>
+      <c r="G154" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>320</v>
       </c>
@@ -4361,33 +5770,45 @@
         <v>321</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D155">
-        <v>12578874</v>
+        <v>10677553</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F155" t="s">
+        <v>555</v>
+      </c>
+      <c r="G155" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>322</v>
       </c>
       <c r="B156" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="D156">
-        <v>11692215</v>
+        <v>7296761</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F156" t="s">
+        <v>556</v>
+      </c>
+      <c r="G156" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>323</v>
       </c>
@@ -4395,33 +5816,45 @@
         <v>324</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="D157">
-        <v>10677553</v>
+        <v>7653641</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F157" t="s">
+        <v>557</v>
+      </c>
+      <c r="G157" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>325</v>
       </c>
       <c r="B158" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="C158" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="D158">
-        <v>7296761</v>
+        <v>12191299</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F158" t="s">
+        <v>452</v>
+      </c>
+      <c r="G158" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>326</v>
       </c>
@@ -4429,50 +5862,68 @@
         <v>327</v>
       </c>
       <c r="C159" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>7653641</v>
+        <v>6337638</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F159" t="s">
+        <v>558</v>
+      </c>
+      <c r="G159" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>328</v>
       </c>
       <c r="B160" t="s">
-        <v>182</v>
+        <v>329</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D160">
-        <v>12191299</v>
+        <v>11219580</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F160" t="s">
+        <v>559</v>
+      </c>
+      <c r="G160" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B161" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D161">
-        <v>6337638</v>
+        <v>11700691</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F161" t="s">
+        <v>560</v>
+      </c>
+      <c r="G161" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -4480,237 +5931,321 @@
         <v>332</v>
       </c>
       <c r="C162" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D162">
-        <v>11219580</v>
+        <v>11153882</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F162" t="s">
+        <v>561</v>
+      </c>
+      <c r="G162" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>333</v>
       </c>
       <c r="B163" t="s">
-        <v>182</v>
+        <v>334</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D163">
-        <v>11700691</v>
+        <v>5899168</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F163" t="s">
+        <v>562</v>
+      </c>
+      <c r="G163" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B164" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D164">
-        <v>11153882</v>
+        <v>6984177</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F164" t="s">
+        <v>563</v>
+      </c>
+      <c r="G164" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B165" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D165">
-        <v>5899168</v>
+        <v>12181797</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F165" t="s">
+        <v>452</v>
+      </c>
+      <c r="G165" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B166" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D166">
-        <v>6984177</v>
+        <v>12291057</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F166" t="s">
+        <v>564</v>
+      </c>
+      <c r="G166" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D167">
-        <v>12181797</v>
+        <v>9163262</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F167" t="s">
+        <v>565</v>
+      </c>
+      <c r="G167" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B168" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D168">
-        <v>12291057</v>
+        <v>10259575</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F168" t="s">
+        <v>566</v>
+      </c>
+      <c r="G168" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B169" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="D169">
-        <v>9163262</v>
+        <v>9502116</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>567</v>
+      </c>
+      <c r="G169" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B170" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C170" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D170">
-        <v>10259575</v>
+        <v>10137848</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F170" t="s">
+        <v>471</v>
+      </c>
+      <c r="G170" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C171" t="s">
-        <v>147</v>
-      </c>
-      <c r="D171">
-        <v>9502116</v>
+        <v>29</v>
+      </c>
+      <c r="D171" t="s">
+        <v>351</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F171" t="s">
+        <v>568</v>
+      </c>
+      <c r="G171" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D172">
-        <v>10137848</v>
+        <v>9570221</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F172" t="s">
+        <v>569</v>
+      </c>
+      <c r="G172" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B173" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C173" t="s">
-        <v>32</v>
-      </c>
-      <c r="D173" t="s">
-        <v>354</v>
+        <v>29</v>
+      </c>
+      <c r="D173">
+        <v>11349561</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F173" t="s">
+        <v>570</v>
+      </c>
+      <c r="G173" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B174" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D174">
-        <v>9570221</v>
+        <v>12039590</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F174" t="s">
+        <v>452</v>
+      </c>
+      <c r="G174" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B175" t="s">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="C175" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D175">
-        <v>11349561</v>
+        <v>8957689</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F175" t="s">
+        <v>571</v>
+      </c>
+      <c r="G175" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -4718,98 +6253,135 @@
         <v>360</v>
       </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="D176">
-        <v>12039590</v>
+        <v>3937068</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F176" t="s">
+        <v>572</v>
+      </c>
+      <c r="G176" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>361</v>
       </c>
       <c r="B177" t="s">
-        <v>114</v>
+        <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D177">
-        <v>8957689</v>
+        <v>11570670</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F177" t="s">
+        <v>452</v>
+      </c>
+      <c r="G177" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B178" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C178" t="s">
-        <v>147</v>
-      </c>
-      <c r="D178">
-        <v>3937068</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D178" t="s">
+        <v>109</v>
+      </c>
+      <c r="E178" s="1"/>
+      <c r="F178" t="s">
+        <v>573</v>
+      </c>
+      <c r="G178" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B179" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D179">
-        <v>11570670</v>
+        <v>10449216</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F179" t="s">
+        <v>452</v>
+      </c>
+      <c r="G179" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B180" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
-      </c>
-      <c r="D180" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D180">
+        <v>11801268</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F180" t="s">
+        <v>574</v>
+      </c>
+      <c r="G180" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B181" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C181" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D181">
-        <v>10449216</v>
+        <v>11621763</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F181" t="s">
+        <v>452</v>
+      </c>
+      <c r="G181" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -4817,67 +6389,91 @@
         <v>371</v>
       </c>
       <c r="C182" t="s">
-        <v>65</v>
+        <v>372</v>
       </c>
       <c r="D182">
-        <v>11801268</v>
+        <v>10283207</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F182" t="s">
+        <v>575</v>
+      </c>
+      <c r="G182" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B183" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D183">
-        <v>11621763</v>
+        <v>10416468</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F183" t="s">
+        <v>471</v>
+      </c>
+      <c r="G183" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B184" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C184" t="s">
-        <v>375</v>
+        <v>144</v>
       </c>
       <c r="D184">
-        <v>10283207</v>
+        <v>6323311</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F184" t="s">
+        <v>576</v>
+      </c>
+      <c r="G184" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B185" t="s">
-        <v>377</v>
+        <v>19</v>
       </c>
       <c r="C185" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="D185">
-        <v>10416468</v>
+        <v>5544575</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F185" t="s">
+        <v>577</v>
+      </c>
+      <c r="G185" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>378</v>
       </c>
@@ -4885,356 +6481,482 @@
         <v>379</v>
       </c>
       <c r="C186" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>6323311</v>
+        <v>11738684</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F186" t="s">
+        <v>452</v>
+      </c>
+      <c r="G186" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>380</v>
       </c>
       <c r="B187" t="s">
-        <v>22</v>
+        <v>381</v>
       </c>
       <c r="C187" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D187">
-        <v>5544575</v>
+        <v>5530040</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F187" t="s">
+        <v>578</v>
+      </c>
+      <c r="G187" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B188" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C188" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D188">
-        <v>11738684</v>
+        <v>9595646</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F188" t="s">
+        <v>452</v>
+      </c>
+      <c r="G188" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B189" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C189" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D189">
-        <v>5530040</v>
+        <v>5987300</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F189" t="s">
+        <v>579</v>
+      </c>
+      <c r="G189" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D190">
-        <v>9595646</v>
+        <v>10637040</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F190" t="s">
+        <v>580</v>
+      </c>
+      <c r="G190" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B191" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C191" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D191">
-        <v>5987300</v>
+        <v>8835541</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F191" t="s">
+        <v>581</v>
+      </c>
+      <c r="G191" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B192" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C192" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D192">
-        <v>10637040</v>
+        <v>9641417</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F192" t="s">
+        <v>452</v>
+      </c>
+      <c r="G192" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B193" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C193" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D193">
-        <v>8835541</v>
+        <v>10278251</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F193" t="s">
+        <v>582</v>
+      </c>
+      <c r="G193" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B194" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C194" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="D194">
-        <v>9641417</v>
+        <v>11972677</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F194" t="s">
+        <v>452</v>
+      </c>
+      <c r="G194" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B195" t="s">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D195">
-        <v>10278251</v>
+        <v>11237740</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F195" t="s">
+        <v>452</v>
+      </c>
+      <c r="G195" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>397</v>
       </c>
       <c r="B196" t="s">
+        <v>296</v>
+      </c>
+      <c r="C196" t="s">
+        <v>372</v>
+      </c>
+      <c r="D196">
+        <v>8053178</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F196" t="s">
+        <v>583</v>
+      </c>
+      <c r="G196" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>398</v>
       </c>
-      <c r="C196" t="s">
-        <v>32</v>
-      </c>
-      <c r="D196">
-        <v>11972677</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B197" t="s">
         <v>399</v>
       </c>
-      <c r="B197" t="s">
-        <v>1</v>
-      </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D197">
-        <v>11237740</v>
+        <v>10973066</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F197" t="s">
+        <v>584</v>
+      </c>
+      <c r="G197" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>400</v>
       </c>
       <c r="B198" t="s">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="C198" t="s">
-        <v>375</v>
+        <v>29</v>
       </c>
       <c r="D198">
-        <v>8053178</v>
+        <v>6589361</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F198" t="s">
+        <v>585</v>
+      </c>
+      <c r="G198" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B199" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C199" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="D199">
-        <v>10973066</v>
+        <v>9703795</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F199" t="s">
+        <v>452</v>
+      </c>
+      <c r="G199" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B200" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C200" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D200">
-        <v>6589361</v>
+        <v>8461258</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F200" t="s">
+        <v>586</v>
+      </c>
+      <c r="G200" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B201" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C201" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D201">
-        <v>9703795</v>
+        <v>12227815</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F201" t="s">
+        <v>452</v>
+      </c>
+      <c r="G201" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C202" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D202">
-        <v>8461258</v>
+        <v>8878574</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F202" t="s">
+        <v>452</v>
+      </c>
+      <c r="G202" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B203" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C203" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D203">
-        <v>12227815</v>
+        <v>9684132</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F203" t="s">
+        <v>452</v>
+      </c>
+      <c r="G203" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B204" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C204" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D204">
-        <v>8878574</v>
+        <v>10485907</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F204" t="s">
+        <v>587</v>
+      </c>
+      <c r="G204" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B205" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C205" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D205">
-        <v>9684132</v>
+        <v>10770584</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F205" t="s">
+        <v>588</v>
+      </c>
+      <c r="G205" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B206" t="s">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="C206" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="D206">
-        <v>10485907</v>
+        <v>7666629</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F206" t="s">
+        <v>589</v>
+      </c>
+      <c r="G206" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>417</v>
       </c>
@@ -5242,33 +6964,45 @@
         <v>418</v>
       </c>
       <c r="C207" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D207">
-        <v>10770584</v>
+        <v>8261731</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F207" t="s">
+        <v>452</v>
+      </c>
+      <c r="G207" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>419</v>
       </c>
       <c r="B208" t="s">
-        <v>345</v>
+        <v>177</v>
       </c>
       <c r="C208" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D208">
-        <v>7666629</v>
+        <v>11920779</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F208" t="s">
+        <v>590</v>
+      </c>
+      <c r="G208" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>420</v>
       </c>
@@ -5276,33 +7010,45 @@
         <v>421</v>
       </c>
       <c r="C209" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D209">
-        <v>8261731</v>
+        <v>9173402</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F209" t="s">
+        <v>471</v>
+      </c>
+      <c r="G209" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>422</v>
       </c>
       <c r="B210" t="s">
-        <v>180</v>
+        <v>338</v>
       </c>
       <c r="C210" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D210">
-        <v>11920779</v>
+        <v>8515940</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F210" t="s">
+        <v>591</v>
+      </c>
+      <c r="G210" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>423</v>
       </c>
@@ -5310,33 +7056,45 @@
         <v>424</v>
       </c>
       <c r="C211" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D211">
-        <v>9173402</v>
+        <v>9204810</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F211" t="s">
+        <v>592</v>
+      </c>
+      <c r="G211" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>425</v>
       </c>
       <c r="B212" t="s">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>8515940</v>
+        <v>7895399</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F212" t="s">
+        <v>593</v>
+      </c>
+      <c r="G212" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>426</v>
       </c>
@@ -5344,129 +7102,170 @@
         <v>427</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>428</v>
       </c>
       <c r="D213">
-        <v>9204810</v>
+        <v>6085862</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F213" t="s">
+        <v>594</v>
+      </c>
+      <c r="G213" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B214" t="s">
-        <v>1</v>
+        <v>430</v>
       </c>
       <c r="C214" t="s">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="D214">
-        <v>7895399</v>
+        <v>8134141</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F214" t="s">
+        <v>595</v>
+      </c>
+      <c r="G214" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B215" t="s">
-        <v>430</v>
+        <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>431</v>
+        <v>100</v>
       </c>
       <c r="D215">
-        <v>6085862</v>
+        <v>4008083</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F215" t="s">
+        <v>596</v>
+      </c>
+      <c r="G215" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B216" t="s">
-        <v>433</v>
+        <v>31</v>
       </c>
       <c r="C216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216">
+        <v>8804411</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F216" t="s">
+        <v>597</v>
+      </c>
+      <c r="G216" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>434</v>
       </c>
-      <c r="D216">
-        <v>8134141</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B217" t="s">
         <v>435</v>
       </c>
-      <c r="B217" t="s">
-        <v>13</v>
-      </c>
       <c r="C217" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D217">
-        <v>4008083</v>
+        <v>9334596</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F217" t="s">
+        <v>598</v>
+      </c>
+      <c r="G217" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B218" t="s">
-        <v>34</v>
+        <v>435</v>
       </c>
       <c r="C218" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="D218">
-        <v>8804411</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>9334596</v>
+      </c>
+      <c r="E218" s="1"/>
+      <c r="F218" t="s">
+        <v>598</v>
+      </c>
+      <c r="G218" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B219" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C219" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D219">
         <v>9334596</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E219" s="1"/>
+      <c r="F219" t="s">
+        <v>598</v>
+      </c>
+      <c r="G219" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B220" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C220" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D220">
         <v>9334596</v>
+      </c>
+      <c r="G220" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
